--- a/RETC_Averaged.xlsx
+++ b/RETC_Averaged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anne-Marie\KUL\Master\Masterthesis\github repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6958CC32-85D5-4C6C-9829-059811F414AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DB249-9D7A-4BE9-8033-BD6CC209A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6780068C-259D-4861-8132-DEBF16CD671B}"/>
+    <workbookView xWindow="4944" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{6780068C-259D-4861-8132-DEBF16CD671B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>profile</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>diep</t>
+  </si>
+  <si>
+    <t>SandyLoam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand </t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E81AFA-4A2C-4311-8D50-2E374E364017}">
-  <dimension ref="C1:J3"/>
+  <dimension ref="C1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,6 +517,58 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.41</v>
+      </c>
+      <c r="G4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.89</v>
+      </c>
+      <c r="I4">
+        <v>106.4</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.43</v>
+      </c>
+      <c r="G5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.68</v>
+      </c>
+      <c r="I5">
+        <v>712.8</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
